--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579642.9800400218</v>
+        <v>576361.3121643835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514382</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>22.62529567903929</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>82.46119763909357</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>26.20075604774391</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>15.34175039594468</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127513</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -1664,7 +1664,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="V14" t="n">
-        <v>102.3382270926888</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.833957768458453</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>174.3702863852112</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>70.34400780127513</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>119.7767578427763</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,70 +2081,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.833957768458453</v>
+        <v>98.10479885422572</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>212.2853856434422</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.014288877659</v>
+        <v>190.3453970742847</v>
       </c>
     </row>
     <row r="24">
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>96.43005249508262</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>49.31110394229507</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.014288877659</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,16 +2640,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.31015748716329</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>34.50879137443861</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>26.92846591669572</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>35.1701970587816</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.809496073036076</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>160.4442220756123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>156.8566953852486</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>200.3360962888294</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.79900896488246</v>
       </c>
     </row>
     <row r="43">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>54.27206683872649</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T2" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U2" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V2" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,43 +4416,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>666.6164474949592</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>666.6164474949592</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="X3" t="n">
-        <v>877.8816728430684</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6722890434539</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>694.6722890434539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>878.2251822441752</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C12" t="n">
-        <v>703.7721529630483</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D12" t="n">
-        <v>554.837743301797</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E12" t="n">
-        <v>395.6002882963414</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F12" t="n">
-        <v>249.0657303232264</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>948.5604379389749</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>775.1430933896438</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>572.9564987484099</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>344.732880484799</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5303,13 +5303,13 @@
         <v>802.5825927271062</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066563</v>
+        <v>731.5280393924849</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125842</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684842</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="V14" t="n">
         <v>19.28114311021272</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>787.9255531013317</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="C15" t="n">
-        <v>613.4725238202047</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="D15" t="n">
-        <v>464.5381141589534</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="E15" t="n">
-        <v>305.3006591534979</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299843</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299843</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299843</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569325</v>
       </c>
       <c r="N15" t="n">
-        <v>542.8095319084027</v>
+        <v>621.8469951458148</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972852</v>
+        <v>860.4511411346973</v>
       </c>
       <c r="P15" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q15" t="n">
         <v>964.057155510636</v>
       </c>
       <c r="R15" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S15" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T15" t="n">
-        <v>964.057155510636</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U15" t="n">
-        <v>787.9255531013317</v>
+        <v>259.0600686093456</v>
       </c>
       <c r="V15" t="n">
-        <v>787.9255531013317</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="W15" t="n">
-        <v>787.9255531013317</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9255531013317</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="Y15" t="n">
-        <v>787.9255531013317</v>
+        <v>23.90796037760293</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5519,7 +5519,7 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057936</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
         <v>519.3476278686978</v>
@@ -5531,34 +5531,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330341</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889341</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.081519725614</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>413.6284904444871</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456821</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5701,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984127</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984127</v>
+        <v>233.710825578336</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543127</v>
+        <v>233.710825578336</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543127</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,22 +5750,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021253</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759371</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185851</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P20" t="n">
         <v>964.057155510636</v>
@@ -5780,22 +5780,22 @@
         <v>964.057155510636</v>
       </c>
       <c r="T20" t="n">
-        <v>749.6274730425127</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U20" t="n">
-        <v>749.6274730425127</v>
+        <v>720.608378866536</v>
       </c>
       <c r="V20" t="n">
-        <v>749.6274730425127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="W20" t="n">
-        <v>749.6274730425127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984127</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23.90796037760293</v>
+        <v>292.8299288097496</v>
       </c>
       <c r="C21" t="n">
-        <v>23.90796037760293</v>
+        <v>118.3768995286225</v>
       </c>
       <c r="D21" t="n">
-        <v>23.90796037760293</v>
+        <v>118.3768995286225</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563266</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O21" t="n">
         <v>964.057155510636</v>
@@ -5853,28 +5853,28 @@
         <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635217</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141906</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729566</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093456</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760293</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W21" t="n">
-        <v>23.90796037760293</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="X21" t="n">
-        <v>23.90796037760293</v>
+        <v>292.8299288097496</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.90796037760293</v>
+        <v>292.8299288097496</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224362</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224362</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224362</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783362</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783362</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299843</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299843</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299843</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299843</v>
+        <v>353.5194236555477</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299843</v>
+        <v>206.9848656824326</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084243</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973067</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
         <v>964.057155510636</v>
@@ -6099,19 +6099,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V24" t="n">
-        <v>679.0958513775852</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W24" t="n">
-        <v>435.6470747334852</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X24" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299843</v>
+        <v>512.7568786610032</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>946.321503346179</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.0193012081257</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>726.8416594126254</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>726.8416594126254</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>577.9072497513741</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>895.0569964326935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>895.0569964326935</v>
+        <v>828.0302610388364</v>
       </c>
       <c r="T27" t="n">
-        <v>895.0569964326935</v>
+        <v>828.0302610388364</v>
       </c>
       <c r="U27" t="n">
-        <v>895.0569964326935</v>
+        <v>828.0302610388364</v>
       </c>
       <c r="V27" t="n">
-        <v>895.0569964326935</v>
+        <v>828.0302610388364</v>
       </c>
       <c r="W27" t="n">
-        <v>895.0569964326935</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="X27" t="n">
-        <v>895.0569964326935</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y27" t="n">
-        <v>895.0569964326935</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.710825578336</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.710825578336</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.710825578336</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6698,7 +6698,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>477.159602222436</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.710825578336</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117118</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>936.856684887711</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>936.856684887711</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>936.856684887711</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>936.856684887711</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>693.407908243611</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="34">
@@ -6883,7 +6883,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6980,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>527.9820370414923</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>353.5290077603653</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T36" t="n">
-        <v>934.7112791079849</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U36" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V36" t="n">
-        <v>471.3355526126313</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="W36" t="n">
-        <v>227.8867759685313</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>527.9820370414923</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>527.9820370414923</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7114,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.159602222436</v>
       </c>
       <c r="D38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.159602222436</v>
       </c>
       <c r="E38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.159602222436</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H38" t="n">
         <v>231.8830517671884</v>
@@ -7172,52 +7172,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W38" t="n">
-        <v>475.3318284112885</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>182.1001465464452</v>
+        <v>194.4883050441254</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>805.61604906089</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>805.61604906089</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>805.61604906089</v>
       </c>
       <c r="V39" t="n">
-        <v>425.5489231905453</v>
+        <v>570.4639408291473</v>
       </c>
       <c r="W39" t="n">
-        <v>182.1001465464452</v>
+        <v>570.4639408291473</v>
       </c>
       <c r="X39" t="n">
-        <v>182.1001465464452</v>
+        <v>570.4639408291473</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.1001465464452</v>
+        <v>362.7036420641934</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E41" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7421,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879775</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768599</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902107</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>934.7112791079849</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>934.7112791079849</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>934.7112791079849</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V42" t="n">
-        <v>471.3355526126313</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W42" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7664,34 +7664,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>567.60420440717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>567.60420440717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="T45" t="n">
-        <v>735.8195414272379</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8195414272379</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V45" t="n">
-        <v>735.8195414272379</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W45" t="n">
-        <v>735.8195414272379</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>735.8195414272379</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>735.8195414272379</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996773</v>
       </c>
       <c r="N15" t="n">
-        <v>186.8580120236954</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996773</v>
@@ -9492,7 +9492,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,7 +10203,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147211</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879872</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631348</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22641,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22671,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5394330157823</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,13 +22829,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>140.6346519250378</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>121.2443095168948</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23261,16 +23261,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23303,19 +23303,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,22 +23334,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>84.81608375669845</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>138.6760617849702</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>10.3313640301775</v>
       </c>
       <c r="V14" t="n">
-        <v>225.4140313774462</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>85.56267508295663</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>51.5710956957636</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688598</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>27.66830772186242</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>153.8111226869425</v>
+        <v>59.54028160117522</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.1894164723249</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783946</v>
+        <v>195.8925415817689</v>
       </c>
     </row>
     <row r="24">
@@ -24291,22 +24291,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>40.91346466812801</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>176.6302781386798</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326061</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24382,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,16 +24528,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.84767666547984</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>137.1743797293992</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>314.8059134233277</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,13 +24725,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,10 +24813,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,19 +25044,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>144.7547051871421</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716931</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,19 +25233,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>112.2748685058572</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25284,16 +25284,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>99.40903831289552</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427311</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25442,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>329.5130333308492</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>12.26427691270342</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>14.82647571858925</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813055</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>195.8925415817687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>71.10541651401829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124219</v>
       </c>
     </row>
     <row r="43">
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>145.8926618560951</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20952.65529224541</v>
+        <v>-21344.88553779096</v>
       </c>
       <c r="C6" t="n">
-        <v>59816.77623930234</v>
+        <v>59424.54599375676</v>
       </c>
       <c r="D6" t="n">
-        <v>59816.77623930234</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="E6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="F6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="G6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375674</v>
       </c>
       <c r="H6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="I6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="J6" t="n">
-        <v>30384.43364019608</v>
+        <v>29992.20339465054</v>
       </c>
       <c r="K6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="L6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="M6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375674</v>
       </c>
       <c r="N6" t="n">
-        <v>93444.37623930235</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="P6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375677</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26802,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H4" t="n">
         <v>241.014288877659</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="N15" t="n">
-        <v>55.51629994036207</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O15" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M21" t="n">
         <v>241.014288877659</v>
@@ -36212,7 +36212,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161414</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N24" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,7 +36923,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
